--- a/data/georgia_census/racha/cageri/average_wages.xlsx
+++ b/data/georgia_census/racha/cageri/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2FFC6EA-8652-4325-A3A3-EB0A29FD0DC2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB013D3C-CED2-4A19-9BF6-163B33DDCDDF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34530886-885C-4977-9C70-82186A81AB80}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4AD246A-5D72-45F6-AA7D-F280E2299C21}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{634A3241-D040-4D5E-A309-CAF2BED648FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86687227-985D-44DA-B047-DA426FF3F3B9}"/>
 </file>